--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="161">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,154 +61,154 @@
     <t>panic</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>providing</t>
+  </si>
+  <si>
+    <t>seniors</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>providing</t>
-  </si>
-  <si>
-    <t>seniors</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>security</t>
   </si>
   <si>
     <t>boost</t>
@@ -862,10 +862,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9615384615384616</v>
@@ -1094,7 +1094,7 @@
         <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.9555555555555556</v>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.9444444444444444</v>
@@ -1194,7 +1194,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1244,7 +1244,7 @@
         <v>405</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.9444444444444444</v>
@@ -1273,28 +1273,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1230769230769231</v>
+        <v>0.005204718945176961</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F10">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>114</v>
+        <v>2867</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.9411764705882353</v>
@@ -1323,28 +1323,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005204718945176961</v>
+        <v>0.004267892317793828</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="E11">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F11">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2867</v>
+        <v>3033</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1369,32 +1369,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.004267892317793828</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>168</v>
-      </c>
-      <c r="E12">
-        <v>0.92</v>
-      </c>
-      <c r="F12">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3033</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1420,7 +1396,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.9322033898305084</v>
@@ -1446,7 +1422,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.9230769230769231</v>
@@ -1472,7 +1448,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.9148936170212766</v>
@@ -1498,7 +1474,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.8715596330275229</v>
@@ -1524,7 +1500,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1550,7 +1526,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.8636363636363636</v>
@@ -1576,7 +1552,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>0.8503937007874016</v>
@@ -1602,7 +1578,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.825</v>
@@ -1628,7 +1604,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.8076923076923077</v>
@@ -1654,7 +1630,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.8070175438596491</v>
@@ -1680,7 +1656,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.8014184397163121</v>
@@ -1706,7 +1682,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.8012820512820513</v>
@@ -1732,7 +1708,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>0.8</v>
@@ -1758,7 +1734,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>0.7826086956521739</v>
@@ -1784,7 +1760,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>0.7777777777777778</v>
@@ -1810,7 +1786,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>0.7777777777777778</v>
@@ -1836,7 +1812,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.7676767676767676</v>
@@ -1862,7 +1838,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>0.75</v>
@@ -1888,137 +1864,137 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L31">
         <v>47</v>
       </c>
-      <c r="K31">
-        <v>0.7467248908296943</v>
-      </c>
-      <c r="L31">
-        <v>171</v>
-      </c>
       <c r="M31">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.746031746031746</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.7252747252747253</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.7222222222222222</v>
+        <v>0.72</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M34">
+        <v>37</v>
+      </c>
+      <c r="N34">
+        <v>0.97</v>
+      </c>
+      <c r="O34">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
         <v>14</v>
-      </c>
-      <c r="N34">
-        <v>0.93</v>
-      </c>
-      <c r="O34">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.72</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>0.703125</v>
@@ -2044,7 +2020,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>0.6829268292682927</v>
@@ -2070,7 +2046,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>0.6818181818181818</v>
@@ -2096,7 +2072,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>0.6666666666666666</v>
@@ -2122,7 +2098,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>0.6515679442508711</v>
@@ -2148,7 +2124,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>0.6515151515151515</v>
@@ -2174,28 +2150,28 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.6481481481481481</v>
+        <v>0.64</v>
       </c>
       <c r="L42">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2206,22 +2182,22 @@
         <v>0.64</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2229,25 +2205,25 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.64</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2261,16 +2237,16 @@
         <v>14</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -2307,25 +2283,25 @@
         <v>62</v>
       </c>
       <c r="K47">
-        <v>0.6363636363636364</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2333,25 +2309,25 @@
         <v>63</v>
       </c>
       <c r="K48">
-        <v>0.6299212598425197</v>
+        <v>0.625</v>
       </c>
       <c r="L48">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>141</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2359,25 +2335,25 @@
         <v>64</v>
       </c>
       <c r="K49">
-        <v>0.625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="N49">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -4566,7 +4542,7 @@
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K134">
         <v>0.07276843467011643</v>
@@ -4748,7 +4724,7 @@
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K141">
         <v>0.0486198243412798</v>
